--- a/cd/doc/formaty_plikow_xls_do_importu_danych/formy_zajec.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/formy_zajec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Skrót</t>
   </si>
@@ -93,17 +93,23 @@
     <t>rezerwacja</t>
   </si>
   <si>
-    <t>Rodzaj( C=Forma zajęć R=Forma rezeracji)</t>
-  </si>
-  <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Rodzaj (C=Forma zajęć R=Forma rezeracji)</t>
+  </si>
+  <si>
+    <t>Program wstawia lub aktualizuje rekordy, w zależności od tego, czy rekord o podanym skrócie istnieje.</t>
+  </si>
+  <si>
+    <t>Pamiętaj, by raz użytego skrótu nie zmieniać, ponieważ spowoduje to zdublowanie danych.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -120,8 +126,16 @@
       <name val="Arial CE"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +148,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -144,15 +169,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dobre" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E2" sqref="E2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -464,19 +493,19 @@
     <col min="3" max="3" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -487,8 +516,20 @@
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -498,8 +539,20 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -510,7 +563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -521,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -532,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -543,7 +596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -554,7 +607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -565,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -573,10 +626,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -584,10 +637,10 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -595,7 +648,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/formy_zajec.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/formy_zajec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Skrót</t>
   </si>
@@ -103,13 +103,19 @@
   </si>
   <si>
     <t>Pamiętaj, by raz użytego skrótu nie zmieniać, ponieważ spowoduje to zdublowanie danych.</t>
+  </si>
+  <si>
+    <t>Integration Id</t>
+  </si>
+  <si>
+    <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -134,8 +140,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +171,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -173,12 +191,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dobre" xfId="1" builtinId="26"/>
@@ -481,19 +500,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:N3"/>
+      <selection activeCell="F5" sqref="F5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -503,9 +523,11 @@
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -516,10 +538,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -528,8 +550,9 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -539,10 +562,9 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -551,8 +573,9 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -563,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -573,8 +596,20 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -585,7 +620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -596,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -607,7 +642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -618,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -629,7 +664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -640,7 +675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/formy_zajec.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/formy_zajec.xlsx
@@ -96,9 +96,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>Rodzaj (C=Forma zajęć R=Forma rezeracji)</t>
-  </si>
-  <si>
     <t>Program wstawia lub aktualizuje rekordy, w zależności od tego, czy rekord o podanym skrócie istnieje.</t>
   </si>
   <si>
@@ -108,7 +105,10 @@
     <t>Integration Id</t>
   </si>
   <si>
-    <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego.</t>
+    <t>Rodzaj (C=Forma zajęć R=Forma rezerwacji)</t>
+  </si>
+  <si>
+    <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego. Jeżeli nie wiesz co wpisać, pozostaw to pole puste.</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:O5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -521,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -563,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
